--- a/FlaskWebProject1/FlaskWebProject1/coursemap.xlsx
+++ b/FlaskWebProject1/FlaskWebProject1/coursemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\nthu_google\course\Advance_Data_Base\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helen/Desktop/DataBase/FlaskWebProject1/FlaskWebProject1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1083CEE-4B65-47BC-9A41-0E46E8467573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C63BA18-772F-9A4B-BF76-843C37594993}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -106,18 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>互相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單向(需先修)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單向(後可修)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[8]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +269,18 @@
   </si>
   <si>
     <t>[20,22]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mutual</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,17 +666,17 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -684,16 +684,16 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -718,16 +718,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -735,16 +735,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -752,16 +752,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -769,16 +769,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -786,16 +786,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -803,16 +803,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -820,16 +820,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -837,16 +837,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -854,16 +854,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -871,16 +871,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -888,16 +888,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -905,16 +905,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -922,16 +922,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -939,16 +939,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -956,16 +956,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -973,16 +973,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -990,16 +990,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1007,16 +1007,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1024,16 +1024,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1041,47 +1041,47 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
